--- a/Proyecto atlas.xlsx
+++ b/Proyecto atlas.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Olart21\Olarte_ejercicio1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C305C3A6-6F8B-4083-8E51-35389FD000CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,55 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="14">
+  <si>
+    <t>lunes</t>
+  </si>
+  <si>
+    <t>Martes</t>
+  </si>
+  <si>
+    <t>miercoles</t>
+  </si>
+  <si>
+    <t>Jueves</t>
+  </si>
+  <si>
+    <t>viernes</t>
+  </si>
+  <si>
+    <t>sabado</t>
+  </si>
+  <si>
+    <t>Domingo</t>
+  </si>
+  <si>
+    <t>horas</t>
+  </si>
+  <si>
+    <t>Clases</t>
+  </si>
+  <si>
+    <t>Entrenar</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
+  </si>
+  <si>
+    <t>Estudiar</t>
+  </si>
+  <si>
+    <t>Descanso</t>
+  </si>
+  <si>
+    <t>Jugar Futbol</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +102,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +121,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9D9C23F4-77A6-4EB5-A713-DEA8EFA7E624}" name="Tabla2" displayName="Tabla2" ref="A1:H10" totalsRowShown="0">
+  <autoFilter ref="A1:H10" xr:uid="{9D9C23F4-77A6-4EB5-A713-DEA8EFA7E624}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{73492926-A8F3-486D-BE8F-B734DCBFA0F5}" name="horas"/>
+    <tableColumn id="2" xr3:uid="{D40862EB-1379-4598-B768-4BE2CF0DA311}" name="lunes"/>
+    <tableColumn id="3" xr3:uid="{2B62539F-0A4D-492B-A4A7-553C49EFB8A6}" name="Martes"/>
+    <tableColumn id="4" xr3:uid="{07472C25-1BE0-4176-A852-0AA52CB5E09A}" name="miercoles"/>
+    <tableColumn id="5" xr3:uid="{99CB62A5-803A-4E19-A03C-3111F21435FB}" name="Jueves"/>
+    <tableColumn id="6" xr3:uid="{81C40E30-DADD-439F-9B14-0021274F743A}" name="viernes"/>
+    <tableColumn id="7" xr3:uid="{4261A44E-5F69-4E10-9510-FBFB1FCFDBE7}" name="sabado"/>
+    <tableColumn id="8" xr3:uid="{90A9329F-7B52-4BB5-8F74-3A62E568CEF8}" name="Domingo"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +402,208 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>